--- a/Templates/Raw Template Format Planning.xlsx
+++ b/Templates/Raw Template Format Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Tanmay\End Sem PBL\end-sem-practical-pbl\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Tanmay\End Sem PBL\end-sem-practical-pbl\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45253DA8-F35C-4844-A3C6-BC609578D2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F958064-81EF-4BE9-936E-5BF9B9CCAD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3A21E16A-A018-407A-B0E1-E60CAEF54AB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A21E16A-A018-407A-B0E1-E60CAEF54AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Student List" sheetId="3" r:id="rId1"/>
@@ -317,21 +317,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB96F-A3F5-4116-ADC1-AC294EA5D371}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1505,18 +1504,18 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -1590,158 +1589,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40525FB7-EF98-4FE7-8AC1-02F49E32FC6A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>0.5625</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>2501132001</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>0.5625</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2501132002</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>0.5625</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>2501132003</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>2501132001</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2501132002</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2501132004</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
